--- a/elements/csms_elements.xlsx
+++ b/elements/csms_elements.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0--csms首页" sheetId="1" r:id="rId1"/>
     <sheet name="1--招募管理" sheetId="2" r:id="rId2"/>
+    <sheet name="百度" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>用户名输入框</t>
   </si>
@@ -213,6 +214,18 @@
   </si>
   <si>
     <t>确定后的检查点</t>
+  </si>
+  <si>
+    <t>百度搜索框</t>
+  </si>
+  <si>
+    <t>(By.ID,'kw')</t>
+  </si>
+  <si>
+    <t>百度一下按钮</t>
+  </si>
+  <si>
+    <t>(By.ID,'su')</t>
   </si>
 </sst>
 </file>
@@ -220,10 +233,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -231,6 +244,95 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,18 +352,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,80 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -363,18 +383,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -387,187 +400,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,54 +591,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,6 +618,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -668,13 +677,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1573,4 +1586,41 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>